--- a/resourcetable.xlsx
+++ b/resourcetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creativity\01_Espresso\7_dac25rebuttal\push\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A51B4-02ED-4AAF-BB54-B457CAF7EBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D126B1BB-072B-4F39-9808-C022EC6E02DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAF8579A-1087-47ED-B27E-B5AE8A4C1DB9}"/>
   </bookViews>
@@ -480,176 +480,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA17C155-C4F4-4024-A4D5-421F50A070FD}">
-  <dimension ref="F1:H16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="5.75" customWidth="1"/>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
     <col min="6" max="6" width="34.5" customWidth="1"/>
     <col min="7" max="7" width="21.25" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="B2" s="1">
         <v>9073</v>
       </c>
-      <c r="H2" s="1">
+      <c r="C2" s="1">
         <v>4096</v>
       </c>
     </row>
-    <row r="3" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="2" t="s">
+    <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1">
+      <c r="B3" s="1">
         <v>10041</v>
       </c>
-      <c r="H3" s="1">
+      <c r="C3" s="1">
         <v>4929</v>
       </c>
     </row>
-    <row r="4" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
+    <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1">
+      <c r="B4" s="1">
         <v>11467</v>
       </c>
-      <c r="H4" s="1">
+      <c r="C4" s="1">
         <v>6559</v>
       </c>
     </row>
-    <row r="5" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="2" t="s">
+    <row r="5" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
+      <c r="B5" s="1">
         <v>15364</v>
       </c>
-      <c r="H5" s="1">
+      <c r="C5" s="1">
         <v>9860</v>
       </c>
     </row>
-    <row r="6" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
+    <row r="6" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1">
+      <c r="B6" s="1">
         <v>34736</v>
       </c>
-      <c r="H6" s="1">
+      <c r="C6" s="1">
         <v>6898</v>
       </c>
     </row>
-    <row r="7" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
+    <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1">
+      <c r="B7" s="1">
         <v>36061</v>
       </c>
-      <c r="H7" s="1">
+      <c r="C7" s="1">
         <v>8319</v>
       </c>
     </row>
-    <row r="8" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="2" t="s">
+    <row r="8" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1">
+      <c r="B8" s="1">
         <v>40627</v>
       </c>
-      <c r="H8" s="1">
+      <c r="C8" s="1">
         <v>11071</v>
       </c>
     </row>
-    <row r="9" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="2" t="s">
+    <row r="9" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1">
+      <c r="B9" s="1">
         <v>49379</v>
       </c>
-      <c r="H9" s="1">
+      <c r="C9" s="1">
         <v>16673</v>
       </c>
     </row>
-    <row r="10" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+    <row r="10" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="B10" s="1">
         <v>18141</v>
       </c>
-      <c r="H10" s="1">
+      <c r="C10" s="1">
         <v>9048</v>
       </c>
     </row>
-    <row r="11" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+    <row r="11" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="1">
+      <c r="B11" s="1">
         <v>45028</v>
       </c>
-      <c r="H11" s="1">
+      <c r="C11" s="1">
         <v>12497</v>
       </c>
     </row>
-    <row r="12" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+    <row r="12" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="1">
+      <c r="B12" s="1">
         <v>29197</v>
       </c>
-      <c r="H12" s="1">
+      <c r="C12" s="1">
         <v>14895</v>
       </c>
     </row>
-    <row r="13" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+    <row r="13" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1">
+      <c r="B13" s="1">
         <v>56582</v>
       </c>
-      <c r="H13" s="1">
+      <c r="C13" s="1">
         <v>18948</v>
       </c>
     </row>
-    <row r="14" spans="6:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+    <row r="14" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="1">
+      <c r="B14" s="1">
         <v>83825</v>
       </c>
-      <c r="H14" s="1">
+      <c r="C14" s="1">
         <v>22287</v>
       </c>
     </row>
-    <row r="15" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="6:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
